--- a/biology/Médecine/Institut_Paoli-Calmettes/Institut_Paoli-Calmettes.xlsx
+++ b/biology/Médecine/Institut_Paoli-Calmettes/Institut_Paoli-Calmettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Institut Paoli-Calmettes (IPC) est un des 18 centres régionaux de lutte contre le cancer de France, et il se situe à Marseille depuis 1923[1].
+L'Institut Paoli-Calmettes (IPC) est un des 18 centres régionaux de lutte contre le cancer de France, et il se situe à Marseille depuis 1923.
 Établissement de santé privé d'intérêt collectif (ESPIC) régi par le Code de la santé publique en tant que Centre régional de lutte contre le cancer, l'Institut assure des missions de niveau hospitalo-universitaire dans le domaine de la cancérologie et précisément la prise en charge globale de l'ensemble des pathologies cancéreuses pour la région PACA Ouest et la Corse. L'Institut Paoli-Calmettes est chargé, par la loi, d'une mission de service public en matière de cancérologie.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1923, par décret gouvernemental, un Institut pour l’étude du cancer et du radium ouvre à Marseille. En 1927, le centre est transféré à l'Hôpital Sainte-Marguerite. En 1947, il est reconnu d'utilité publique par décret. En 1969, le centre s'installe dans le bâtiment principal actuel. En 1974, le professeur Xavier Sérafino décide de lui donner le nom d’Institut Paoli-Calmettes. C'est un hommage au Professeur Jean Paoli, directeur Général (1952-1970) et à Irène Calmettes (Infirmière et surveillante générale engagée dans le traitement des cancers depuis 1927)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1923, par décret gouvernemental, un Institut pour l’étude du cancer et du radium ouvre à Marseille. En 1927, le centre est transféré à l'Hôpital Sainte-Marguerite. En 1947, il est reconnu d'utilité publique par décret. En 1969, le centre s'installe dans le bâtiment principal actuel. En 1974, le professeur Xavier Sérafino décide de lui donner le nom d’Institut Paoli-Calmettes. C'est un hommage au Professeur Jean Paoli, directeur Général (1952-1970) et à Irène Calmettes (Infirmière et surveillante générale engagée dans le traitement des cancers depuis 1927),.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Chiffres 2018  [4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnel : 1 400 salariés dont 222 praticiens
 Accueil :
@@ -587,68 +603,316 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bloc opératoire
-12 salles de blocs opératoires dont 3 dédiées à l’endoscopie,
+          <t>Bloc opératoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12 salles de blocs opératoires dont 3 dédiées à l’endoscopie,
 2 robots chirurgicaux,
-1 dispositif de radiothérapie per opératoire.
-Radiothérapie
-4 accélérateurs,
-1 scanner de dosimétrie.
-Imagerie
-2 scanners,
+1 dispositif de radiothérapie per opératoire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plateaux techniques [4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Radiothérapie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 accélérateurs,
+1 scanner de dosimétrie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Plateaux techniques [4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Imagerie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 scanners,
 1 IRM,
 1 unité imagerie de la femme,
 1 bloc de radiologie interventionnelle,
 2 salle d’échographie,
-1 salle de radiologie conventionnelle.
-Médecine nucléaire
-2 Gamma caméras,
-1 TEP TDM.
-Cytaphérèse
-4 machines,
-Biologie du cancer
-1 Laboratoire de Biopathologie,
+1 salle de radiologie conventionnelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plateaux techniques [4]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médecine nucléaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 Gamma caméras,
+1 TEP TDM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Plateaux techniques [4]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cytaphérèse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 machines,</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Plateaux techniques [4]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biologie du cancer</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1 Laboratoire de Biopathologie,
 1 Laboratoire d'oncogénétique (somatique et constitutionnelle).</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Institut_Paoli-Calmettes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Activité de recherche en 2018 [4]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Domaines de spécialité
-Onco-hématologie
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Domaines de spécialité</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Onco-hématologie
 Cancers du sein
 Cancers digestifs
 Cancers urologiques
-Cancers gynécologiques
-Ressources humaines
-19 équipes de recherche soutenues par 14 plateformes technologiques de pointe,
-1 équipe de recherche en Sciences économiques &amp; sociales de la santé &amp; traitement de l’information médicale.
-Plateformes de recherche clinique
-1 département de recherche clinique et innovation,
+Cancers gynécologiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Activité de recherche en 2018 [4]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ressources humaines</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>19 équipes de recherche soutenues par 14 plateformes technologiques de pointe,
+1 équipe de recherche en Sciences économiques &amp; sociales de la santé &amp; traitement de l’information médicale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Activité de recherche en 2018 [4]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plateformes de recherche clinique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1 département de recherche clinique et innovation,
 1 centre d’essais cliniques de phases précoces,
 1 centre de bio-statistique et de gestion des données,
 1 plateforme de développement de médicaments innovants,
@@ -656,31 +920,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Institut_Paoli-Calmettes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Paoli-Calmettes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Cancers pris en charge à l'Institut Paoli-Calmettes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein de l’Institut Paoli-Calmettes, les pathologies cancéreuses suivantes sont prises en charge :
 cancers digestifs,
@@ -692,7 +958,7 @@
 cancers de la peau,
 cancers thoraciques,
 cancers urologiques,
-sarcomes et autres tumeurs conjonctives[5].
+sarcomes et autres tumeurs conjonctives.
 Liste complète : https://www.institutpaolicalmettes.fr/cancers-pris-en-charge-par-ipc/
 </t>
         </is>
